--- a/data/output/best_policy_DEP_1.xlsx
+++ b/data/output/best_policy_DEP_1.xlsx
@@ -416,7 +416,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="E2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
         <v>0.9999999999999999</v>
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
         <v>0.7</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E3">
         <v>0.7999999999999999</v>
@@ -483,7 +483,7 @@
         <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G4">
         <v>0.7999999999999999</v>
@@ -682,31 +682,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>853.4451835386353</v>
+        <v>825.7796471333322</v>
       </c>
       <c r="D3">
-        <v>1313.29094706543</v>
+        <v>1284.75609286227</v>
       </c>
       <c r="E3">
-        <v>1653.024765245191</v>
+        <v>1631.646865489128</v>
       </c>
       <c r="F3">
-        <v>1910.277650907523</v>
+        <v>1897.539543239232</v>
       </c>
       <c r="G3">
-        <v>2117.71694639859</v>
+        <v>2112.364785382152</v>
       </c>
       <c r="H3">
-        <v>2286.023178738793</v>
+        <v>2285.706805605113</v>
       </c>
       <c r="I3">
-        <v>2422.453148444327</v>
+        <v>2425.440317866353</v>
       </c>
       <c r="J3">
-        <v>2532.961347707724</v>
+        <v>2537.992625434911</v>
       </c>
       <c r="K3">
-        <v>2622.414918929134</v>
+        <v>2628.588912512074</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1070.744238587958</v>
+        <v>1014.530516441531</v>
       </c>
       <c r="D4">
-        <v>1823.379140988513</v>
+        <v>1747.002030657043</v>
       </c>
       <c r="E4">
-        <v>2442.963344237581</v>
+        <v>2367.19237161274</v>
       </c>
       <c r="F4">
-        <v>2962.937766146521</v>
+        <v>2892.246295631969</v>
       </c>
       <c r="G4">
-        <v>3394.710871799935</v>
+        <v>3339.053843996398</v>
       </c>
       <c r="H4">
-        <v>3765.053024664251</v>
+        <v>3722.33122474528</v>
       </c>
       <c r="I4">
-        <v>4080.432628402352</v>
+        <v>4048.532817263852</v>
       </c>
       <c r="J4">
-        <v>4348.71805029497</v>
+        <v>4330.306126737076</v>
       </c>
       <c r="K4">
-        <v>4585.015535862563</v>
+        <v>4576.997125794085</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1116.345468624574</v>
+        <v>1048.177344972206</v>
       </c>
       <c r="D5">
-        <v>1986.729382990405</v>
+        <v>1885.767945278154</v>
       </c>
       <c r="E5">
-        <v>2794.459441116033</v>
+        <v>2672.570718054333</v>
       </c>
       <c r="F5">
-        <v>3513.629100343675</v>
+        <v>3383.846728158036</v>
       </c>
       <c r="G5">
-        <v>4141.416157853444</v>
+        <v>4014.884185823118</v>
       </c>
       <c r="H5">
-        <v>4696.614985163833</v>
+        <v>4580.443911212914</v>
       </c>
       <c r="I5">
-        <v>5185.678239638278</v>
+        <v>5081.997486180033</v>
       </c>
       <c r="J5">
-        <v>5615.877509756502</v>
+        <v>5531.669298429042</v>
       </c>
       <c r="K5">
-        <v>6000.937841048879</v>
+        <v>5934.337543683298</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -787,31 +787,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1122.647948154266</v>
+        <v>1053.065483385705</v>
       </c>
       <c r="D6">
-        <v>2026.125063987603</v>
+        <v>1916.665866089918</v>
       </c>
       <c r="E6">
-        <v>2911.096354522143</v>
+        <v>2769.497428914788</v>
       </c>
       <c r="F6">
-        <v>3754.084527063653</v>
+        <v>3589.306288664112</v>
       </c>
       <c r="G6">
-        <v>4537.071727520491</v>
+        <v>4358.615570590845</v>
       </c>
       <c r="H6">
-        <v>5249.095501906079</v>
+        <v>5066.811122865097</v>
       </c>
       <c r="I6">
-        <v>5890.338752808455</v>
+        <v>5712.317217887028</v>
       </c>
       <c r="J6">
-        <v>6470.929238212976</v>
+        <v>6304.893648908902</v>
       </c>
       <c r="K6">
-        <v>6997.610839628633</v>
+        <v>6846.877835281603</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -822,31 +822,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1122.804740614754</v>
+        <v>1053.007776457998</v>
       </c>
       <c r="D7">
-        <v>2033.056475226192</v>
+        <v>1921.504948952039</v>
       </c>
       <c r="E7">
-        <v>2942.230615247212</v>
+        <v>2793.506933528568</v>
       </c>
       <c r="F7">
-        <v>3837.372587618142</v>
+        <v>3656.517429227813</v>
       </c>
       <c r="G7">
-        <v>4704.250189626777</v>
+        <v>4497.600133324856</v>
       </c>
       <c r="H7">
-        <v>5528.964801869768</v>
+        <v>5304.211065189677</v>
       </c>
       <c r="I7">
-        <v>6300.99642590433</v>
+        <v>6066.501428140063</v>
       </c>
       <c r="J7">
-        <v>7014.142763715141</v>
+        <v>6777.853513726569</v>
       </c>
       <c r="K7">
-        <v>7667.855848387165</v>
+        <v>7437.523349491647</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -857,31 +857,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1122.192664466129</v>
+        <v>1052.369666630102</v>
       </c>
       <c r="D8">
-        <v>2033.094538098546</v>
+        <v>1921.133414327604</v>
       </c>
       <c r="E8">
-        <v>2948.064612885986</v>
+        <v>2797.299178215877</v>
       </c>
       <c r="F8">
-        <v>3860.649515098553</v>
+        <v>3673.845876714011</v>
       </c>
       <c r="G8">
-        <v>4763.421044219251</v>
+        <v>4543.941199537196</v>
       </c>
       <c r="H8">
-        <v>5646.852940552127</v>
+        <v>5399.376152174652</v>
       </c>
       <c r="I8">
-        <v>6500.4887552167</v>
+        <v>6231.123332787101</v>
       </c>
       <c r="J8">
-        <v>7314.721026894403</v>
+        <v>7030.575926282155</v>
       </c>
       <c r="K8">
-        <v>8082.330608511355</v>
+        <v>7790.987081313526</v>
       </c>
     </row>
   </sheetData>
